--- a/3.xlsx
+++ b/3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c49e4f0b6c3fc49/WorkSpace/SAT_learn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_AA72FFC797D9AE5F8545A7BBC36E7DF960B4975A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D4B9D8F-5BC2-4C55-A1B4-E036037C923B}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_AA72FFC797D9AE5F8545A7BBC36E7DF960B4975A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B9C7647-25BB-4820-8B43-5754AD5230F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="-60" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -134,6 +134,22 @@
   </si>
   <si>
     <t>ismt_m_time</t>
+  </si>
+  <si>
+    <t>z3_pb_solved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z3_pb_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z3_pn_solved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z3_pn_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -542,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -739,6 +755,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.xlsx
+++ b/3.xlsx
@@ -1,37 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c49e4f0b6c3fc49/WorkSpace/SAT_learn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hrcarryu\SAT-learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AA72FFC797D9AE5F8545A7BBC36E7DF960B4975A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B9C7647-25BB-4820-8B43-5754AD5230F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE3835-466B-4E6D-8F6E-E74F788CB788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="-60" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>STC</t>
-  </si>
-  <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>MS</t>
+    <t>ismt_c_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_time</t>
+  </si>
+  <si>
+    <t>z3_n_solved</t>
+  </si>
+  <si>
+    <t>z3_n_time</t>
+  </si>
+  <si>
+    <t>z3_b_solved</t>
+  </si>
+  <si>
+    <t>z3_b_time</t>
+  </si>
+  <si>
+    <t>z3_pb_solved</t>
+  </si>
+  <si>
+    <t>z3_pb_time</t>
+  </si>
+  <si>
+    <t>cvc5_b_solved</t>
+  </si>
+  <si>
+    <t>cvc5_b_time</t>
+  </si>
+  <si>
+    <t>z3_solved</t>
+  </si>
+  <si>
+    <t>z3_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_time</t>
   </si>
   <si>
     <t>aprove_solved</t>
@@ -40,22 +73,64 @@
     <t>aprove_time</t>
   </si>
   <si>
+    <t>ismt_m_solved</t>
+  </si>
+  <si>
+    <t>ismt_m_time</t>
+  </si>
+  <si>
+    <t>ismt_m_p_d_e_solved</t>
+  </si>
+  <si>
+    <t>ismt_m_p_d_e_time</t>
+  </si>
+  <si>
+    <t>mathsat_solved</t>
+  </si>
+  <si>
+    <t>mathsat_time</t>
+  </si>
+  <si>
+    <t>z3_pn_solved</t>
+  </si>
+  <si>
+    <t>z3_pn_time</t>
+  </si>
+  <si>
+    <t>yices2_solved</t>
+  </si>
+  <si>
+    <t>yices2_time</t>
+  </si>
+  <si>
     <t>cvc5_solved</t>
   </si>
   <si>
     <t>cvc5_time</t>
   </si>
   <si>
-    <t>cvc5_b_solved</t>
-  </si>
-  <si>
-    <t>cvc5_b_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_e_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_e_time</t>
+    <t>ismt_c_p_f_s_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_f_s_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_359_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_359_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_time</t>
+  </si>
+  <si>
+    <t>smtrat_solved</t>
+  </si>
+  <si>
+    <t>smtrat_time</t>
   </si>
   <si>
     <t>ismt_c_p_e_solved</t>
@@ -64,92 +139,16 @@
     <t>ismt_c_p_e_time</t>
   </si>
   <si>
-    <t>ismt_m_p_d_e_solved</t>
-  </si>
-  <si>
-    <t>ismt_m_p_d_e_time</t>
-  </si>
-  <si>
-    <t>mathsat_solved</t>
-  </si>
-  <si>
-    <t>mathsat_time</t>
-  </si>
-  <si>
-    <t>smtrat_solved</t>
-  </si>
-  <si>
-    <t>smtrat_time</t>
-  </si>
-  <si>
-    <t>yices2_solved</t>
-  </si>
-  <si>
-    <t>yices2_time</t>
-  </si>
-  <si>
-    <t>z3_solved</t>
-  </si>
-  <si>
-    <t>z3_time</t>
-  </si>
-  <si>
-    <t>z3_b_solved</t>
-  </si>
-  <si>
-    <t>z3_b_time</t>
-  </si>
-  <si>
-    <t>z3_n_solved</t>
-  </si>
-  <si>
-    <t>z3_n_time</t>
-  </si>
-  <si>
-    <t>ismt_c_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_e_359_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_e_359_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_f_s_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_f_s_time</t>
-  </si>
-  <si>
-    <t>ismt_m_solved</t>
-  </si>
-  <si>
-    <t>ismt_m_time</t>
-  </si>
-  <si>
-    <t>z3_pb_solved</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>z3_pb_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>z3_pn_solved</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>z3_pn_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>cvc5_r_solved</t>
+  </si>
+  <si>
+    <t>cvc5_r_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_time</t>
   </si>
 </sst>
 </file>
@@ -167,10 +166,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -238,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -280,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,27 +309,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,24 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,226 +519,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.375" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3.xlsx
+++ b/3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hrcarryu\SAT-learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE3835-466B-4E6D-8F6E-E74F788CB788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5293FED-4C8C-4F8F-AAE1-6DD28B5B16D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -149,6 +149,30 @@
   </si>
   <si>
     <t>ismt_c_p_d_time</t>
+  </si>
+  <si>
+    <t>z3_a_solved</t>
+  </si>
+  <si>
+    <t>z3_a_time</t>
+  </si>
+  <si>
+    <t>ismt_m_p_f_s_solved</t>
+  </si>
+  <si>
+    <t>ismt_m_p_f_s_time</t>
+  </si>
+  <si>
+    <t>cvc5_a_solved</t>
+  </si>
+  <si>
+    <t>cvc5_a_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_2_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_2_time</t>
   </si>
 </sst>
 </file>
@@ -519,16 +543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -869,6 +890,70 @@
       </c>
       <c r="B43" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
